--- a/qa/lastmonth/【SQA质量月报】嵌入式软件部202009.xlsx
+++ b/qa/lastmonth/【SQA质量月报】嵌入式软件部202009.xlsx
@@ -482,20 +482,14 @@
     <t>2. 版本质量：</t>
   </si>
   <si>
-    <t>成功上线24个版本；</t>
+    <t>成功发布24个版本；</t>
   </si>
   <si>
     <t>3. 研发内部质量：</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本月线上缺陷：115个，</t>
+      <t>本月新增缺陷：115个，</t>
     </r>
     <r>
       <rPr>
@@ -4927,10 +4921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -5325,16 +5319,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5348,51 +5349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5414,24 +5371,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5455,7 +5433,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5640,7 +5634,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5658,55 +5736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5724,60 +5766,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5785,6 +5773,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6301,15 +6295,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6321,6 +6306,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6340,32 +6349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6380,6 +6363,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6388,10 +6382,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="42" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6400,148 +6394,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="47" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="47" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="44" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="44" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6552,10 +6546,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6996,11 +6990,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7319,9 +7313,6 @@
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="25" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7508,9 +7499,9 @@
     <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="百分比 2" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="15"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="14"/>
+    <cellStyle name="百分比 2" xfId="15"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
     <cellStyle name="标题 4" xfId="17" builtinId="19"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
@@ -8007,206 +7998,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.15" customHeight="1" spans="1:4">
-      <c r="A1" s="308" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
+      <c r="A1" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="310" t="s">
+      <c r="D2" s="309" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="311">
+      <c r="A3" s="310">
         <v>1</v>
       </c>
-      <c r="B3" s="312" t="s">
+      <c r="B3" s="311" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="313"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="312"/>
     </row>
     <row r="4" ht="49.5" outlineLevel="1" spans="1:4">
-      <c r="A4" s="314"/>
-      <c r="B4" s="315" t="s">
+      <c r="A4" s="313"/>
+      <c r="B4" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="316" t="s">
+      <c r="C4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="313" t="s">
+      <c r="D4" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="311">
+      <c r="A5" s="310">
         <v>2</v>
       </c>
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="313"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="312"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A6" s="314"/>
-      <c r="B6" s="317" t="s">
+      <c r="A6" s="313"/>
+      <c r="B6" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="318" t="s">
+      <c r="C6" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="313" t="s">
+      <c r="D6" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="311">
+      <c r="A7" s="310">
         <v>3</v>
       </c>
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="313"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="312"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:4">
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="318" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="313" t="s">
+      <c r="D8" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" outlineLevel="1" spans="2:4">
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="318" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" outlineLevel="1" spans="2:4">
-      <c r="B10" s="319" t="s">
+      <c r="B10" s="318" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="313" t="s">
+      <c r="D10" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="2:4">
-      <c r="B11" s="319" t="s">
+      <c r="B11" s="318" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" spans="2:4">
-      <c r="B12" s="319" t="s">
+      <c r="B12" s="318" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="313" t="s">
+      <c r="D12" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="316" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="313" t="s">
+      <c r="D13" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="26.1" customHeight="1" outlineLevel="1" spans="2:4">
-      <c r="B14" s="317" t="s">
+      <c r="B14" s="316" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="313" t="s">
+      <c r="D14" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="317" t="s">
+      <c r="B15" s="316" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="313" t="s">
+      <c r="D15" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="316" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="313" t="s">
+      <c r="D16" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="317" t="s">
+      <c r="B17" s="316" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="313" t="s">
+      <c r="D17" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="311">
+      <c r="A18" s="310">
         <v>4</v>
       </c>
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="312"/>
-      <c r="D18" s="313"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="312"/>
     </row>
     <row r="19" ht="33" spans="2:3">
-      <c r="B19" s="319" t="s">
+      <c r="B19" s="318" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="320" t="s">
+      <c r="C19" s="319" t="s">
         <v>35</v>
       </c>
     </row>
@@ -17260,7 +17251,7 @@
       <c r="D56" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="E56" s="321" t="s">
+      <c r="E56" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F56" s="49" t="str">
@@ -17341,13 +17332,13 @@
       <c r="B57" s="37" t="s">
         <v>1512</v>
       </c>
-      <c r="C57" s="321" t="s">
+      <c r="C57" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="E57" s="321" t="s">
+      <c r="E57" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F57" s="49" t="str">
@@ -17428,7 +17419,7 @@
       <c r="B58" s="37" t="s">
         <v>1513</v>
       </c>
-      <c r="C58" s="321" t="s">
+      <c r="C58" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D58" s="49">
@@ -17608,7 +17599,7 @@
       <c r="D60" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="E60" s="321" t="s">
+      <c r="E60" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F60" s="49" t="str">
@@ -17689,13 +17680,13 @@
       <c r="B61" s="37" t="s">
         <v>1512</v>
       </c>
-      <c r="C61" s="321" t="s">
+      <c r="C61" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="E61" s="321" t="s">
+      <c r="E61" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -17776,7 +17767,7 @@
       <c r="B62" s="37" t="s">
         <v>1513</v>
       </c>
-      <c r="C62" s="321" t="s">
+      <c r="C62" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D62" s="49">
@@ -17958,7 +17949,7 @@
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E64" s="321" t="s">
+      <c r="E64" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F64" s="49" t="str">
@@ -18039,14 +18030,14 @@
       <c r="B65" s="21" t="s">
         <v>1512</v>
       </c>
-      <c r="C65" s="321" t="s">
+      <c r="C65" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D65" s="49" t="str">
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="321" t="s">
+      <c r="E65" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="F65" s="49" t="str">
@@ -18127,7 +18118,7 @@
       <c r="B66" s="37" t="s">
         <v>1513</v>
       </c>
-      <c r="C66" s="321" t="s">
+      <c r="C66" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="D66" s="49" t="str">
@@ -18386,10 +18377,10 @@
       <c r="B69" s="37" t="s">
         <v>1512</v>
       </c>
-      <c r="C69" s="321" t="s">
+      <c r="C69" s="320" t="s">
         <v>1524</v>
       </c>
-      <c r="D69" s="321" t="s">
+      <c r="D69" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="E69" s="49">
@@ -18469,10 +18460,10 @@
       <c r="B70" s="37" t="s">
         <v>1513</v>
       </c>
-      <c r="C70" s="321" t="s">
+      <c r="C70" s="320" t="s">
         <v>1524</v>
       </c>
-      <c r="D70" s="321" t="s">
+      <c r="D70" s="320" t="s">
         <v>1524</v>
       </c>
       <c r="E70" s="49">
@@ -18719,10 +18710,10 @@
       <c r="B73" s="37" t="s">
         <v>1512</v>
       </c>
-      <c r="C73" s="322" t="s">
+      <c r="C73" s="321" t="s">
         <v>1524</v>
       </c>
-      <c r="D73" s="322" t="s">
+      <c r="D73" s="321" t="s">
         <v>1524</v>
       </c>
       <c r="E73" s="124">
@@ -18802,10 +18793,10 @@
       <c r="B74" s="37" t="s">
         <v>1513</v>
       </c>
-      <c r="C74" s="322" t="s">
+      <c r="C74" s="321" t="s">
         <v>1524</v>
       </c>
-      <c r="D74" s="322" t="s">
+      <c r="D74" s="321" t="s">
         <v>1524</v>
       </c>
       <c r="E74" s="124">
@@ -18932,8 +18923,8 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H$1:H$1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -18986,8 +18977,8 @@
       <c r="J2" s="230"/>
       <c r="K2" s="230"/>
       <c r="L2" s="230"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
     </row>
     <row r="3" s="183" customFormat="1" ht="23.1" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A3" s="231" t="s">
@@ -19086,18 +19077,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="240"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="266"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="265"/>
       <c r="K5" s="235">
         <f>SUM(E5:G5)</f>
         <v>2</v>
       </c>
-      <c r="L5" s="267"/>
+      <c r="L5" s="266"/>
       <c r="M5" s="235">
         <f>SUM(I5:L5)</f>
         <v>2</v>
       </c>
-      <c r="N5" s="268"/>
+      <c r="N5" s="267"/>
     </row>
     <row r="6" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A6" s="241"/>
@@ -19114,18 +19105,18 @@
         <v>0</v>
       </c>
       <c r="H6" s="240"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="266"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="265"/>
       <c r="K6" s="235">
         <f>SUM(E6:F6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="267"/>
+      <c r="L6" s="266"/>
       <c r="M6" s="235">
         <f>SUM(I6:L6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="268"/>
+      <c r="N6" s="267"/>
     </row>
     <row r="7" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A7" s="241"/>
@@ -19142,18 +19133,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="240"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="265"/>
       <c r="K7" s="235">
         <f>SUM(E7:F7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="267"/>
+      <c r="L7" s="266"/>
       <c r="M7" s="235">
         <f>SUM(I7:L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="268"/>
+      <c r="N7" s="267"/>
     </row>
     <row r="8" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A8" s="241"/>
@@ -19170,18 +19161,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="240"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="266"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="265"/>
       <c r="K8" s="235">
         <f>SUM(E8:F8)</f>
         <v>2</v>
       </c>
-      <c r="L8" s="267"/>
+      <c r="L8" s="266"/>
       <c r="M8" s="235">
         <f>SUM(I8:L8)</f>
         <v>2</v>
       </c>
-      <c r="N8" s="268"/>
+      <c r="N8" s="267"/>
     </row>
     <row r="9" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A9" s="241"/>
@@ -19204,16 +19195,16 @@
         <v>0.553</v>
       </c>
       <c r="H9" s="248"/>
-      <c r="I9" s="270"/>
+      <c r="I9" s="269"/>
       <c r="J9" s="260"/>
       <c r="K9" s="247">
         <v>0.5131</v>
       </c>
-      <c r="L9" s="270"/>
+      <c r="L9" s="269"/>
       <c r="M9" s="247">
         <v>0.5131</v>
       </c>
-      <c r="N9" s="268"/>
+      <c r="N9" s="267"/>
     </row>
     <row r="10" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A10" s="241"/>
@@ -19230,16 +19221,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="240"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="270"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
       <c r="K10" s="235">
         <v>0</v>
       </c>
-      <c r="L10" s="270"/>
+      <c r="L10" s="269"/>
       <c r="M10" s="235">
         <v>0</v>
       </c>
-      <c r="N10" s="268"/>
+      <c r="N10" s="267"/>
     </row>
     <row r="11" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A11" s="241"/>
@@ -19256,16 +19247,16 @@
         <v>0.679</v>
       </c>
       <c r="H11" s="248"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
       <c r="K11" s="247">
         <v>0.5864</v>
       </c>
-      <c r="L11" s="270"/>
+      <c r="L11" s="269"/>
       <c r="M11" s="247">
         <v>0.5864</v>
       </c>
-      <c r="N11" s="268"/>
+      <c r="N11" s="267"/>
     </row>
     <row r="12" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A12" s="241"/>
@@ -19282,16 +19273,16 @@
         <v>0.4779</v>
       </c>
       <c r="H12" s="248"/>
-      <c r="I12" s="270"/>
-      <c r="J12" s="270"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="269"/>
       <c r="K12" s="247">
         <v>0.4669</v>
       </c>
-      <c r="L12" s="270"/>
+      <c r="L12" s="269"/>
       <c r="M12" s="247">
         <v>0.4669</v>
       </c>
-      <c r="N12" s="268"/>
+      <c r="N12" s="267"/>
     </row>
     <row r="13" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A13" s="241"/>
@@ -19312,18 +19303,18 @@
         <v>24</v>
       </c>
       <c r="H13" s="240"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="265"/>
       <c r="K13" s="235">
         <f>SUM(E13:G13)</f>
         <v>42</v>
       </c>
-      <c r="L13" s="267"/>
+      <c r="L13" s="266"/>
       <c r="M13" s="235">
         <f>SUM(I13:L13)</f>
         <v>42</v>
       </c>
-      <c r="N13" s="271"/>
+      <c r="N13" s="270"/>
     </row>
     <row r="14" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A14" s="241"/>
@@ -19340,18 +19331,18 @@
         <v>0</v>
       </c>
       <c r="H14" s="240"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="266"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="265"/>
       <c r="K14" s="235">
         <f>SUM(E14:F14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="267"/>
+      <c r="L14" s="266"/>
       <c r="M14" s="235">
         <f>SUM(I14:L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="268"/>
+      <c r="N14" s="267"/>
     </row>
     <row r="15" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A15" s="241"/>
@@ -19368,18 +19359,18 @@
         <v>11</v>
       </c>
       <c r="H15" s="240"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="266"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="265"/>
       <c r="K15" s="235">
         <f>SUM(E15:F15)</f>
         <v>5</v>
       </c>
-      <c r="L15" s="267"/>
+      <c r="L15" s="266"/>
       <c r="M15" s="235">
         <f>SUM(I15:L15)</f>
         <v>5</v>
       </c>
-      <c r="N15" s="268"/>
+      <c r="N15" s="267"/>
     </row>
     <row r="16" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A16" s="241"/>
@@ -19396,18 +19387,18 @@
         <v>13</v>
       </c>
       <c r="H16" s="240"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="266"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="265"/>
       <c r="K16" s="235">
         <f>SUM(E16:F16)</f>
         <v>6</v>
       </c>
-      <c r="L16" s="267"/>
+      <c r="L16" s="266"/>
       <c r="M16" s="235">
         <f>SUM(I16:L16)</f>
         <v>6</v>
       </c>
-      <c r="N16" s="268"/>
+      <c r="N16" s="267"/>
     </row>
     <row r="17" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A17" s="241"/>
@@ -19437,7 +19428,7 @@
       <c r="M17" s="235">
         <v>-11.11</v>
       </c>
-      <c r="N17" s="271"/>
+      <c r="N17" s="270"/>
     </row>
     <row r="18" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A18" s="241"/>
@@ -19463,7 +19454,7 @@
       <c r="M18" s="235">
         <v>0</v>
       </c>
-      <c r="N18" s="268"/>
+      <c r="N18" s="267"/>
     </row>
     <row r="19" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A19" s="241"/>
@@ -19489,7 +19480,7 @@
       <c r="M19" s="235">
         <v>-404.82</v>
       </c>
-      <c r="N19" s="268"/>
+      <c r="N19" s="267"/>
     </row>
     <row r="20" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A20" s="241"/>
@@ -19515,7 +19506,7 @@
       <c r="M20" s="235">
         <v>-495.48</v>
       </c>
-      <c r="N20" s="268"/>
+      <c r="N20" s="267"/>
     </row>
     <row r="21" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A21" s="241"/>
@@ -19536,18 +19527,18 @@
         <v>19</v>
       </c>
       <c r="H21" s="240"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="266"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="265"/>
       <c r="K21" s="235">
         <f>SUM(E21:G21)</f>
         <v>39</v>
       </c>
-      <c r="L21" s="267"/>
+      <c r="L21" s="266"/>
       <c r="M21" s="235">
         <f>SUM(I21:L21)</f>
         <v>39</v>
       </c>
-      <c r="N21" s="268"/>
+      <c r="N21" s="267"/>
     </row>
     <row r="22" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A22" s="241"/>
@@ -19564,18 +19555,18 @@
         <v>0</v>
       </c>
       <c r="H22" s="240"/>
-      <c r="I22" s="269"/>
-      <c r="J22" s="266"/>
+      <c r="I22" s="268"/>
+      <c r="J22" s="265"/>
       <c r="K22" s="235">
         <f>SUM(E22:F22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="267"/>
+      <c r="L22" s="266"/>
       <c r="M22" s="235">
         <f>SUM(I22:L22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="268"/>
+      <c r="N22" s="267"/>
     </row>
     <row r="23" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A23" s="241"/>
@@ -19592,18 +19583,18 @@
         <v>5</v>
       </c>
       <c r="H23" s="240"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="266"/>
+      <c r="I23" s="268"/>
+      <c r="J23" s="265"/>
       <c r="K23" s="235">
         <f>SUM(E23:F23)</f>
         <v>3</v>
       </c>
-      <c r="L23" s="267"/>
+      <c r="L23" s="266"/>
       <c r="M23" s="235">
         <f>SUM(I23:L23)</f>
         <v>3</v>
       </c>
-      <c r="N23" s="268"/>
+      <c r="N23" s="267"/>
     </row>
     <row r="24" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A24" s="241"/>
@@ -19620,18 +19611,18 @@
         <v>14</v>
       </c>
       <c r="H24" s="240"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="266"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="265"/>
       <c r="K24" s="235">
         <f>SUM(E24:F24)</f>
         <v>7</v>
       </c>
-      <c r="L24" s="267"/>
+      <c r="L24" s="266"/>
       <c r="M24" s="235">
         <f>SUM(I24:L24)</f>
         <v>7</v>
       </c>
-      <c r="N24" s="268"/>
+      <c r="N24" s="267"/>
     </row>
     <row r="25" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A25" s="241"/>
@@ -19661,7 +19652,7 @@
       <c r="M25" s="235">
         <v>2.85</v>
       </c>
-      <c r="N25" s="268"/>
+      <c r="N25" s="267"/>
     </row>
     <row r="26" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A26" s="241"/>
@@ -19687,7 +19678,7 @@
       <c r="M26" s="235">
         <v>0</v>
       </c>
-      <c r="N26" s="268"/>
+      <c r="N26" s="267"/>
     </row>
     <row r="27" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A27" s="241"/>
@@ -19713,7 +19704,7 @@
       <c r="M27" s="235">
         <v>2.64</v>
       </c>
-      <c r="N27" s="268"/>
+      <c r="N27" s="267"/>
     </row>
     <row r="28" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A28" s="241"/>
@@ -19739,7 +19730,7 @@
       <c r="M28" s="235">
         <v>2.91</v>
       </c>
-      <c r="N28" s="268"/>
+      <c r="N28" s="267"/>
     </row>
     <row r="29" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A29" s="241"/>
@@ -19765,18 +19756,18 @@
         <v>0</v>
       </c>
       <c r="H29" s="256"/>
-      <c r="I29" s="266"/>
+      <c r="I29" s="265"/>
       <c r="J29" s="260"/>
       <c r="K29" s="256">
         <f>K5/IF((K5+K41)=0,1,(K5+K41))</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="L29" s="267"/>
+      <c r="L29" s="266"/>
       <c r="M29" s="256">
         <f>M5/IF((M5+M41)=0,1,(M5+M41))</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="N29" s="268"/>
+      <c r="N29" s="267"/>
     </row>
     <row r="30" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A30" s="241"/>
@@ -19798,18 +19789,18 @@
         <v>0</v>
       </c>
       <c r="H30" s="256"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="272"/>
+      <c r="I30" s="268"/>
+      <c r="J30" s="271"/>
       <c r="K30" s="256">
         <f>K6/IF((K6+K42)=0,1,(K6+K42))</f>
         <v>0</v>
       </c>
-      <c r="L30" s="267"/>
+      <c r="L30" s="266"/>
       <c r="M30" s="256">
         <f>M6/IF((M6+M42)=0,1,(M6+M42))</f>
         <v>0</v>
       </c>
-      <c r="N30" s="268"/>
+      <c r="N30" s="267"/>
     </row>
     <row r="31" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A31" s="241"/>
@@ -19831,18 +19822,18 @@
         <v>0</v>
       </c>
       <c r="H31" s="256"/>
-      <c r="I31" s="269"/>
-      <c r="J31" s="272"/>
+      <c r="I31" s="268"/>
+      <c r="J31" s="271"/>
       <c r="K31" s="256">
         <f>K7/IF((K7+K43)=0,1,(K7+K43))</f>
         <v>0</v>
       </c>
-      <c r="L31" s="267"/>
+      <c r="L31" s="266"/>
       <c r="M31" s="256">
         <f>M7/IF((M7+M43)=0,1,(M7+M43))</f>
         <v>0</v>
       </c>
-      <c r="N31" s="268"/>
+      <c r="N31" s="267"/>
     </row>
     <row r="32" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A32" s="241"/>
@@ -19864,18 +19855,18 @@
         <v>0.00961538461538462</v>
       </c>
       <c r="H32" s="256"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="272"/>
+      <c r="I32" s="268"/>
+      <c r="J32" s="271"/>
       <c r="K32" s="256">
         <f>K8/IF((K8+K44)=0,1,(K8+K44))</f>
         <v>0.0224719101123595</v>
       </c>
-      <c r="L32" s="267"/>
+      <c r="L32" s="266"/>
       <c r="M32" s="256">
         <f>M8/IF((M8+M44)=0,1,(M8+M44))</f>
         <v>0.0224719101123595</v>
       </c>
-      <c r="N32" s="268"/>
+      <c r="N32" s="267"/>
     </row>
     <row r="33" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A33" s="241"/>
@@ -19896,18 +19887,18 @@
         <v>1</v>
       </c>
       <c r="H33" s="240"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="266"/>
+      <c r="I33" s="265"/>
+      <c r="J33" s="265"/>
       <c r="K33" s="235">
         <f>SUM(E33:G33)</f>
         <v>2</v>
       </c>
-      <c r="L33" s="267"/>
+      <c r="L33" s="266"/>
       <c r="M33" s="235">
         <f>SUM(I33:L33)</f>
         <v>2</v>
       </c>
-      <c r="N33" s="268"/>
+      <c r="N33" s="267"/>
     </row>
     <row r="34" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A34" s="241"/>
@@ -19926,18 +19917,18 @@
         <v>0</v>
       </c>
       <c r="H34" s="240"/>
-      <c r="I34" s="269"/>
-      <c r="J34" s="266"/>
+      <c r="I34" s="268"/>
+      <c r="J34" s="265"/>
       <c r="K34" s="235">
         <f t="shared" ref="K34:K44" si="4">SUM(E34:F34)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="267"/>
+      <c r="L34" s="266"/>
       <c r="M34" s="235">
         <f t="shared" ref="M34:M44" si="5">SUM(I34:L34)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="268"/>
+      <c r="N34" s="267"/>
     </row>
     <row r="35" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A35" s="241"/>
@@ -19956,18 +19947,18 @@
         <v>1</v>
       </c>
       <c r="H35" s="240"/>
-      <c r="I35" s="269"/>
-      <c r="J35" s="266"/>
+      <c r="I35" s="268"/>
+      <c r="J35" s="265"/>
       <c r="K35" s="235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="267"/>
+      <c r="L35" s="266"/>
       <c r="M35" s="235">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="268"/>
+      <c r="N35" s="267"/>
     </row>
     <row r="36" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A36" s="241"/>
@@ -19986,18 +19977,18 @@
         <v>0</v>
       </c>
       <c r="H36" s="240"/>
-      <c r="I36" s="269"/>
-      <c r="J36" s="266"/>
+      <c r="I36" s="268"/>
+      <c r="J36" s="265"/>
       <c r="K36" s="235">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L36" s="267"/>
+      <c r="L36" s="266"/>
       <c r="M36" s="235">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N36" s="268"/>
+      <c r="N36" s="267"/>
     </row>
     <row r="37" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A37" s="241"/>
@@ -20018,18 +20009,18 @@
         <v>0</v>
       </c>
       <c r="H37" s="240"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
+      <c r="I37" s="265"/>
+      <c r="J37" s="265"/>
       <c r="K37" s="235">
         <f>SUM(E37:G37)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="267"/>
+      <c r="L37" s="266"/>
       <c r="M37" s="235">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N37" s="268"/>
+      <c r="N37" s="267"/>
     </row>
     <row r="38" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A38" s="241"/>
@@ -20046,18 +20037,18 @@
         <v>0</v>
       </c>
       <c r="H38" s="240"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="266"/>
+      <c r="I38" s="265"/>
+      <c r="J38" s="265"/>
       <c r="K38" s="235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" s="267"/>
+      <c r="L38" s="266"/>
       <c r="M38" s="235">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="268"/>
+      <c r="N38" s="267"/>
     </row>
     <row r="39" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A39" s="241"/>
@@ -20074,18 +20065,18 @@
         <v>0</v>
       </c>
       <c r="H39" s="240"/>
-      <c r="I39" s="266"/>
-      <c r="J39" s="266"/>
+      <c r="I39" s="265"/>
+      <c r="J39" s="265"/>
       <c r="K39" s="235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L39" s="267"/>
+      <c r="L39" s="266"/>
       <c r="M39" s="235">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N39" s="268"/>
+      <c r="N39" s="267"/>
     </row>
     <row r="40" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A40" s="241"/>
@@ -20102,18 +20093,18 @@
         <v>0</v>
       </c>
       <c r="H40" s="240"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
+      <c r="I40" s="265"/>
+      <c r="J40" s="265"/>
       <c r="K40" s="235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L40" s="267"/>
+      <c r="L40" s="266"/>
       <c r="M40" s="235">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N40" s="268"/>
+      <c r="N40" s="267"/>
     </row>
     <row r="41" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A41" s="241"/>
@@ -20134,18 +20125,18 @@
         <v>115</v>
       </c>
       <c r="H41" s="240"/>
-      <c r="I41" s="266"/>
-      <c r="J41" s="266"/>
+      <c r="I41" s="265"/>
+      <c r="J41" s="265"/>
       <c r="K41" s="235">
         <f>SUM(E41:G41)</f>
         <v>326</v>
       </c>
-      <c r="L41" s="270"/>
+      <c r="L41" s="269"/>
       <c r="M41" s="249">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
-      <c r="N41" s="268"/>
+      <c r="N41" s="267"/>
     </row>
     <row r="42" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A42" s="241"/>
@@ -20162,18 +20153,18 @@
         <v>0</v>
       </c>
       <c r="H42" s="240"/>
-      <c r="I42" s="269"/>
-      <c r="J42" s="266"/>
+      <c r="I42" s="268"/>
+      <c r="J42" s="265"/>
       <c r="K42" s="235">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="L42" s="267"/>
+      <c r="L42" s="266"/>
       <c r="M42" s="235">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N42" s="268"/>
+      <c r="N42" s="267"/>
     </row>
     <row r="43" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A43" s="241"/>
@@ -20190,18 +20181,18 @@
         <v>12</v>
       </c>
       <c r="H43" s="240"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="266"/>
+      <c r="I43" s="268"/>
+      <c r="J43" s="265"/>
       <c r="K43" s="235">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L43" s="267"/>
+      <c r="L43" s="266"/>
       <c r="M43" s="235">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="N43" s="268"/>
+      <c r="N43" s="267"/>
     </row>
     <row r="44" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A44" s="241"/>
@@ -20218,18 +20209,18 @@
         <v>103</v>
       </c>
       <c r="H44" s="240"/>
-      <c r="I44" s="269"/>
-      <c r="J44" s="266"/>
+      <c r="I44" s="268"/>
+      <c r="J44" s="265"/>
       <c r="K44" s="235">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="L44" s="267"/>
+      <c r="L44" s="266"/>
       <c r="M44" s="235">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="N44" s="268"/>
+      <c r="N44" s="267"/>
     </row>
     <row r="45" s="183" customFormat="1" ht="24" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A45" s="241"/>
@@ -20250,16 +20241,16 @@
         <v>74</v>
       </c>
       <c r="H45" s="259"/>
-      <c r="I45" s="270"/>
-      <c r="J45" s="270"/>
+      <c r="I45" s="269"/>
+      <c r="J45" s="269"/>
       <c r="K45" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="270"/>
+      <c r="L45" s="269"/>
       <c r="M45" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="N45" s="271"/>
+      <c r="N45" s="270"/>
     </row>
     <row r="46" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A46" s="241"/>
@@ -20276,16 +20267,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="240"/>
-      <c r="I46" s="269"/>
-      <c r="J46" s="266"/>
+      <c r="I46" s="268"/>
+      <c r="J46" s="265"/>
       <c r="K46" s="235">
         <v>0</v>
       </c>
-      <c r="L46" s="267"/>
+      <c r="L46" s="266"/>
       <c r="M46" s="235">
         <v>0</v>
       </c>
-      <c r="N46" s="273"/>
+      <c r="N46" s="272"/>
     </row>
     <row r="47" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A47" s="241"/>
@@ -20302,16 +20293,16 @@
         <v>59</v>
       </c>
       <c r="H47" s="240"/>
-      <c r="I47" s="269"/>
-      <c r="J47" s="266"/>
+      <c r="I47" s="268"/>
+      <c r="J47" s="265"/>
       <c r="K47" s="235">
         <v>59</v>
       </c>
-      <c r="L47" s="267"/>
+      <c r="L47" s="266"/>
       <c r="M47" s="235">
         <v>59</v>
       </c>
-      <c r="N47" s="273"/>
+      <c r="N47" s="272"/>
     </row>
     <row r="48" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A48" s="241"/>
@@ -20328,16 +20319,16 @@
         <v>119</v>
       </c>
       <c r="H48" s="240"/>
-      <c r="I48" s="269"/>
-      <c r="J48" s="266"/>
+      <c r="I48" s="268"/>
+      <c r="J48" s="265"/>
       <c r="K48" s="235">
         <v>119</v>
       </c>
-      <c r="L48" s="267"/>
+      <c r="L48" s="266"/>
       <c r="M48" s="235">
         <v>119</v>
       </c>
-      <c r="N48" s="273"/>
+      <c r="N48" s="272"/>
     </row>
     <row r="49" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A49" s="241"/>
@@ -20358,18 +20349,18 @@
         <v>3</v>
       </c>
       <c r="H49" s="240"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="274"/>
+      <c r="I49" s="265"/>
+      <c r="J49" s="273"/>
       <c r="K49" s="235">
         <f>SUM(E49:G49)</f>
         <v>9</v>
       </c>
-      <c r="L49" s="275"/>
+      <c r="L49" s="274"/>
       <c r="M49" s="235">
         <f>SUM(I49:L49)</f>
         <v>9</v>
       </c>
-      <c r="N49" s="268"/>
+      <c r="N49" s="267"/>
     </row>
     <row r="50" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A50" s="241"/>
@@ -20386,18 +20377,18 @@
         <v>0</v>
       </c>
       <c r="H50" s="240"/>
-      <c r="I50" s="269"/>
-      <c r="J50" s="266"/>
+      <c r="I50" s="268"/>
+      <c r="J50" s="265"/>
       <c r="K50" s="235">
         <f>SUM(E50:F50)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="267"/>
+      <c r="L50" s="266"/>
       <c r="M50" s="235">
         <f>SUM(I50:L50)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="268"/>
+      <c r="N50" s="267"/>
     </row>
     <row r="51" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A51" s="241"/>
@@ -20414,18 +20405,18 @@
         <v>0</v>
       </c>
       <c r="H51" s="240"/>
-      <c r="I51" s="269"/>
-      <c r="J51" s="266"/>
+      <c r="I51" s="268"/>
+      <c r="J51" s="265"/>
       <c r="K51" s="235">
         <f>SUM(E51:F51)</f>
         <v>0</v>
       </c>
-      <c r="L51" s="267"/>
+      <c r="L51" s="266"/>
       <c r="M51" s="235">
         <f>SUM(I51:L51)</f>
         <v>0</v>
       </c>
-      <c r="N51" s="268"/>
+      <c r="N51" s="267"/>
     </row>
     <row r="52" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A52" s="241"/>
@@ -20442,18 +20433,18 @@
         <v>3</v>
       </c>
       <c r="H52" s="240"/>
-      <c r="I52" s="269"/>
-      <c r="J52" s="266"/>
+      <c r="I52" s="268"/>
+      <c r="J52" s="265"/>
       <c r="K52" s="235">
         <f>SUM(E52:F52)</f>
         <v>4</v>
       </c>
-      <c r="L52" s="267"/>
+      <c r="L52" s="266"/>
       <c r="M52" s="235">
         <f>SUM(I52:L52)</f>
         <v>4</v>
       </c>
-      <c r="N52" s="268"/>
+      <c r="N52" s="267"/>
     </row>
     <row r="53" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A53" s="241"/>
@@ -20468,29 +20459,29 @@
       </c>
       <c r="E53" s="260">
         <f t="shared" ref="E53:E60" si="6">E65/(IF(E61=0,1,E61))</f>
-        <v>0.612903225806452</v>
+        <v>0.6</v>
       </c>
       <c r="F53" s="260">
         <f t="shared" ref="F53:F60" si="7">F65/(IF(F61=0,1,F61))</f>
-        <v>0.807692307692308</v>
-      </c>
-      <c r="G53" s="256">
+        <v>1</v>
+      </c>
+      <c r="G53" s="260">
         <f t="shared" ref="G53:G60" si="8">G65/(IF(G61=0,1,G61))</f>
         <v>1</v>
       </c>
       <c r="H53" s="256"/>
-      <c r="I53" s="266"/>
+      <c r="I53" s="265"/>
       <c r="J53" s="260"/>
       <c r="K53" s="260">
         <f t="shared" ref="K53:K60" si="9">K65/(IF(K61=0,1,K61))</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="L53" s="276"/>
+        <v>0.89041095890411</v>
+      </c>
+      <c r="L53" s="275"/>
       <c r="M53" s="260">
         <f t="shared" ref="M53:M60" si="10">M65/(IF(M61=0,1,M61))</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="N53" s="271"/>
+        <v>0.89041095890411</v>
+      </c>
+      <c r="N53" s="270"/>
     </row>
     <row r="54" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A54" s="241"/>
@@ -20512,18 +20503,18 @@
         <v>0</v>
       </c>
       <c r="H54" s="260"/>
-      <c r="I54" s="269"/>
-      <c r="J54" s="272"/>
+      <c r="I54" s="268"/>
+      <c r="J54" s="271"/>
       <c r="K54" s="260">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L54" s="267"/>
+      <c r="L54" s="266"/>
       <c r="M54" s="260">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N54" s="268"/>
+      <c r="N54" s="267"/>
     </row>
     <row r="55" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A55" s="241"/>
@@ -20532,31 +20523,31 @@
         <v>58</v>
       </c>
       <c r="D55" s="234"/>
-      <c r="E55" s="260">
+      <c r="E55" s="256">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F55" s="256">
         <f t="shared" si="7"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G55" s="256">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H55" s="256"/>
-      <c r="I55" s="269"/>
-      <c r="J55" s="272"/>
+      <c r="I55" s="268"/>
+      <c r="J55" s="271"/>
       <c r="K55" s="256">
         <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="L55" s="267"/>
+        <v>0.909090909090909</v>
+      </c>
+      <c r="L55" s="266"/>
       <c r="M55" s="256">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="N55" s="268"/>
+        <v>0.909090909090909</v>
+      </c>
+      <c r="N55" s="267"/>
     </row>
     <row r="56" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A56" s="241"/>
@@ -20565,31 +20556,31 @@
         <v>59</v>
       </c>
       <c r="D56" s="234"/>
-      <c r="E56" s="260">
+      <c r="E56" s="256">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="F56" s="256">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G56" s="256">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H56" s="256"/>
-      <c r="I56" s="269"/>
-      <c r="J56" s="272"/>
+      <c r="I56" s="268"/>
+      <c r="J56" s="271"/>
       <c r="K56" s="256">
         <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="L56" s="267"/>
+        <v>0.758620689655172</v>
+      </c>
+      <c r="L56" s="266"/>
       <c r="M56" s="256">
         <f t="shared" si="10"/>
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="268"/>
+        <v>0.758620689655172</v>
+      </c>
+      <c r="N56" s="267"/>
     </row>
     <row r="57" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A57" s="241"/>
@@ -20602,29 +20593,29 @@
       </c>
       <c r="E57" s="256">
         <f t="shared" si="6"/>
-        <v>0.631578947368421</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="F57" s="256">
         <f t="shared" si="7"/>
-        <v>0.904761904761905</v>
+        <v>0.1</v>
       </c>
       <c r="G57" s="256">
         <f t="shared" si="8"/>
         <v>0.818181818181818</v>
       </c>
       <c r="H57" s="256"/>
-      <c r="I57" s="266"/>
+      <c r="I57" s="265"/>
       <c r="J57" s="260"/>
       <c r="K57" s="256">
         <f t="shared" si="9"/>
-        <v>0.794520547945205</v>
-      </c>
-      <c r="L57" s="276"/>
+        <v>0.476923076923077</v>
+      </c>
+      <c r="L57" s="275"/>
       <c r="M57" s="256">
         <f t="shared" si="10"/>
-        <v>0.794520547945205</v>
-      </c>
-      <c r="N57" s="277"/>
+        <v>0.476923076923077</v>
+      </c>
+      <c r="N57" s="276"/>
     </row>
     <row r="58" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A58" s="241"/>
@@ -20646,18 +20637,18 @@
         <v>0</v>
       </c>
       <c r="H58" s="256"/>
-      <c r="I58" s="269"/>
-      <c r="J58" s="266"/>
+      <c r="I58" s="268"/>
+      <c r="J58" s="265"/>
       <c r="K58" s="256">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L58" s="267"/>
+      <c r="L58" s="266"/>
       <c r="M58" s="256">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N58" s="277"/>
+      <c r="N58" s="276"/>
     </row>
     <row r="59" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A59" s="241"/>
@@ -20672,25 +20663,25 @@
       </c>
       <c r="F59" s="256">
         <f t="shared" si="7"/>
-        <v>0.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="G59" s="256">
         <f t="shared" si="8"/>
         <v>0.823529411764706</v>
       </c>
       <c r="H59" s="256"/>
-      <c r="I59" s="269"/>
-      <c r="J59" s="266"/>
+      <c r="I59" s="268"/>
+      <c r="J59" s="265"/>
       <c r="K59" s="256">
         <f t="shared" si="9"/>
-        <v>0.888888888888889</v>
-      </c>
-      <c r="L59" s="267"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="266"/>
       <c r="M59" s="256">
         <f t="shared" si="10"/>
-        <v>0.888888888888889</v>
-      </c>
-      <c r="N59" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="276"/>
     </row>
     <row r="60" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A60" s="241"/>
@@ -20699,31 +20690,31 @@
         <v>59</v>
       </c>
       <c r="D60" s="234"/>
-      <c r="E60" s="260">
+      <c r="E60" s="256">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F60" s="256">
         <f t="shared" si="7"/>
-        <v>0.916666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="G60" s="256">
         <f t="shared" si="8"/>
         <v>0.8125</v>
       </c>
       <c r="H60" s="256"/>
-      <c r="I60" s="269"/>
-      <c r="J60" s="266"/>
+      <c r="I60" s="268"/>
+      <c r="J60" s="265"/>
       <c r="K60" s="256">
         <f t="shared" si="9"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="L60" s="267"/>
+        <v>0.181818181818182</v>
+      </c>
+      <c r="L60" s="266"/>
       <c r="M60" s="256">
         <f t="shared" si="10"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="N60" s="277"/>
+        <v>0.181818181818182</v>
+      </c>
+      <c r="N60" s="276"/>
     </row>
     <row r="61" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A61" s="241"/>
@@ -20734,28 +20725,28 @@
       <c r="D61" s="263" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="264">
-        <v>31</v>
-      </c>
-      <c r="F61" s="264">
-        <v>26</v>
+      <c r="E61" s="235">
+        <v>20</v>
+      </c>
+      <c r="F61" s="235">
+        <v>20</v>
       </c>
       <c r="G61" s="235">
         <v>33</v>
       </c>
       <c r="H61" s="240"/>
-      <c r="I61" s="266"/>
-      <c r="J61" s="266"/>
+      <c r="I61" s="265"/>
+      <c r="J61" s="265"/>
       <c r="K61" s="235">
         <f>SUM(E61:G61)</f>
-        <v>90</v>
-      </c>
-      <c r="L61" s="267"/>
+        <v>73</v>
+      </c>
+      <c r="L61" s="266"/>
       <c r="M61" s="235">
         <f>SUM(I61:L61)</f>
-        <v>90</v>
-      </c>
-      <c r="N61" s="277"/>
+        <v>73</v>
+      </c>
+      <c r="N61" s="276"/>
     </row>
     <row r="62" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A62" s="241"/>
@@ -20764,26 +20755,28 @@
         <v>57</v>
       </c>
       <c r="D62" s="234"/>
-      <c r="E62" s="264"/>
-      <c r="F62" s="264">
-        <v>1</v>
+      <c r="E62" s="235">
+        <v>0</v>
+      </c>
+      <c r="F62" s="235">
+        <v>0</v>
       </c>
       <c r="G62" s="235">
         <v>0</v>
       </c>
       <c r="H62" s="240"/>
-      <c r="I62" s="269"/>
-      <c r="J62" s="266"/>
+      <c r="I62" s="268"/>
+      <c r="J62" s="265"/>
       <c r="K62" s="235">
         <f t="shared" ref="K62:K76" si="11">SUM(E62:F62)</f>
-        <v>1</v>
-      </c>
-      <c r="L62" s="267"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="266"/>
       <c r="M62" s="235">
         <f t="shared" ref="M62:M76" si="12">SUM(I62:L62)</f>
-        <v>1</v>
-      </c>
-      <c r="N62" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="276"/>
     </row>
     <row r="63" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A63" s="241"/>
@@ -20792,26 +20785,28 @@
         <v>58</v>
       </c>
       <c r="D63" s="234"/>
-      <c r="E63" s="264"/>
-      <c r="F63" s="264">
-        <v>10</v>
+      <c r="E63" s="235">
+        <v>3</v>
+      </c>
+      <c r="F63" s="235">
+        <v>8</v>
       </c>
       <c r="G63" s="235">
         <v>17</v>
       </c>
       <c r="H63" s="240"/>
-      <c r="I63" s="269"/>
-      <c r="J63" s="266"/>
+      <c r="I63" s="268"/>
+      <c r="J63" s="265"/>
       <c r="K63" s="235">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="L63" s="267"/>
+        <v>11</v>
+      </c>
+      <c r="L63" s="266"/>
       <c r="M63" s="235">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="N63" s="277"/>
+        <v>11</v>
+      </c>
+      <c r="N63" s="276"/>
     </row>
     <row r="64" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A64" s="241"/>
@@ -20820,26 +20815,28 @@
         <v>59</v>
       </c>
       <c r="D64" s="234"/>
-      <c r="E64" s="264"/>
-      <c r="F64" s="264">
-        <v>15</v>
+      <c r="E64" s="235">
+        <v>17</v>
+      </c>
+      <c r="F64" s="235">
+        <v>12</v>
       </c>
       <c r="G64" s="235">
         <v>16</v>
       </c>
       <c r="H64" s="240"/>
-      <c r="I64" s="269"/>
-      <c r="J64" s="266"/>
+      <c r="I64" s="268"/>
+      <c r="J64" s="265"/>
       <c r="K64" s="235">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="L64" s="267"/>
+        <v>29</v>
+      </c>
+      <c r="L64" s="266"/>
       <c r="M64" s="235">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="N64" s="277"/>
+        <v>29</v>
+      </c>
+      <c r="N64" s="276"/>
     </row>
     <row r="65" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A65" s="241"/>
@@ -20850,28 +20847,28 @@
       <c r="D65" s="263" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="264">
-        <v>19</v>
-      </c>
-      <c r="F65" s="264">
-        <v>21</v>
+      <c r="E65" s="235">
+        <v>12</v>
+      </c>
+      <c r="F65" s="235">
+        <v>20</v>
       </c>
       <c r="G65" s="235">
         <v>33</v>
       </c>
       <c r="H65" s="240"/>
-      <c r="I65" s="266"/>
-      <c r="J65" s="297"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="296"/>
       <c r="K65" s="235">
         <f>SUM(E65:G65)</f>
-        <v>73</v>
-      </c>
-      <c r="L65" s="298"/>
+        <v>65</v>
+      </c>
+      <c r="L65" s="297"/>
       <c r="M65" s="235">
         <f t="shared" si="12"/>
-        <v>73</v>
-      </c>
-      <c r="N65" s="277"/>
+        <v>65</v>
+      </c>
+      <c r="N65" s="276"/>
     </row>
     <row r="66" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A66" s="241"/>
@@ -20880,26 +20877,28 @@
         <v>57</v>
       </c>
       <c r="D66" s="234"/>
-      <c r="E66" s="264"/>
-      <c r="F66" s="264">
+      <c r="E66" s="235">
+        <v>0</v>
+      </c>
+      <c r="F66" s="235">
         <v>0</v>
       </c>
       <c r="G66" s="235">
         <v>0</v>
       </c>
       <c r="H66" s="240"/>
-      <c r="I66" s="269"/>
-      <c r="J66" s="266"/>
+      <c r="I66" s="268"/>
+      <c r="J66" s="265"/>
       <c r="K66" s="235">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L66" s="267"/>
+      <c r="L66" s="266"/>
       <c r="M66" s="235">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N66" s="277"/>
+      <c r="N66" s="276"/>
     </row>
     <row r="67" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A67" s="241"/>
@@ -20908,26 +20907,28 @@
         <v>58</v>
       </c>
       <c r="D67" s="234"/>
-      <c r="E67" s="264"/>
-      <c r="F67" s="264">
-        <v>9</v>
+      <c r="E67" s="235">
+        <v>2</v>
+      </c>
+      <c r="F67" s="235">
+        <v>8</v>
       </c>
       <c r="G67" s="235">
         <v>17</v>
       </c>
       <c r="H67" s="240"/>
-      <c r="I67" s="269"/>
-      <c r="J67" s="266"/>
+      <c r="I67" s="268"/>
+      <c r="J67" s="265"/>
       <c r="K67" s="235">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="L67" s="267"/>
+        <v>10</v>
+      </c>
+      <c r="L67" s="266"/>
       <c r="M67" s="235">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="N67" s="277"/>
+        <v>10</v>
+      </c>
+      <c r="N67" s="276"/>
     </row>
     <row r="68" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A68" s="241"/>
@@ -20936,26 +20937,28 @@
         <v>59</v>
       </c>
       <c r="D68" s="234"/>
-      <c r="E68" s="264"/>
-      <c r="F68" s="264">
+      <c r="E68" s="235">
+        <v>10</v>
+      </c>
+      <c r="F68" s="235">
         <v>12</v>
       </c>
       <c r="G68" s="235">
         <v>16</v>
       </c>
       <c r="H68" s="240"/>
-      <c r="I68" s="269"/>
-      <c r="J68" s="266"/>
+      <c r="I68" s="268"/>
+      <c r="J68" s="265"/>
       <c r="K68" s="235">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="L68" s="267"/>
+        <v>22</v>
+      </c>
+      <c r="L68" s="266"/>
       <c r="M68" s="235">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N68" s="277"/>
+        <v>22</v>
+      </c>
+      <c r="N68" s="276"/>
     </row>
     <row r="69" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A69" s="241"/>
@@ -20966,28 +20969,28 @@
       <c r="D69" s="263" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="264">
-        <v>12</v>
-      </c>
-      <c r="F69" s="264">
-        <v>19</v>
+      <c r="E69" s="235">
+        <v>2</v>
+      </c>
+      <c r="F69" s="235">
+        <v>2</v>
       </c>
       <c r="G69" s="235">
         <v>27</v>
       </c>
       <c r="H69" s="240"/>
-      <c r="I69" s="266"/>
-      <c r="J69" s="266"/>
+      <c r="I69" s="265"/>
+      <c r="J69" s="265"/>
       <c r="K69" s="235">
         <f>SUM(E69:G69)</f>
-        <v>58</v>
-      </c>
-      <c r="L69" s="267"/>
+        <v>31</v>
+      </c>
+      <c r="L69" s="266"/>
       <c r="M69" s="235">
         <f t="shared" si="12"/>
-        <v>58</v>
-      </c>
-      <c r="N69" s="277"/>
+        <v>31</v>
+      </c>
+      <c r="N69" s="276"/>
     </row>
     <row r="70" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A70" s="241"/>
@@ -20996,26 +20999,28 @@
         <v>57</v>
       </c>
       <c r="D70" s="234"/>
-      <c r="E70" s="264"/>
-      <c r="F70" s="264">
+      <c r="E70" s="235">
+        <v>0</v>
+      </c>
+      <c r="F70" s="235">
         <v>0</v>
       </c>
       <c r="G70" s="235">
         <v>0</v>
       </c>
       <c r="H70" s="240"/>
-      <c r="I70" s="269"/>
-      <c r="J70" s="266"/>
+      <c r="I70" s="268"/>
+      <c r="J70" s="265"/>
       <c r="K70" s="235">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L70" s="267"/>
+      <c r="L70" s="266"/>
       <c r="M70" s="235">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N70" s="277"/>
+      <c r="N70" s="276"/>
     </row>
     <row r="71" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A71" s="241"/>
@@ -21024,26 +21029,28 @@
         <v>58</v>
       </c>
       <c r="D71" s="234"/>
-      <c r="E71" s="264"/>
-      <c r="F71" s="264">
-        <v>8</v>
+      <c r="E71" s="235">
+        <v>0</v>
+      </c>
+      <c r="F71" s="235">
+        <v>0</v>
       </c>
       <c r="G71" s="235">
         <v>14</v>
       </c>
       <c r="H71" s="240"/>
-      <c r="I71" s="269"/>
-      <c r="J71" s="266"/>
+      <c r="I71" s="268"/>
+      <c r="J71" s="265"/>
       <c r="K71" s="235">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="L71" s="267"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="266"/>
       <c r="M71" s="235">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N71" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="276"/>
     </row>
     <row r="72" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A72" s="241"/>
@@ -21052,26 +21059,28 @@
         <v>59</v>
       </c>
       <c r="D72" s="234"/>
-      <c r="E72" s="264"/>
-      <c r="F72" s="264">
-        <v>11</v>
+      <c r="E72" s="235">
+        <v>2</v>
+      </c>
+      <c r="F72" s="235">
+        <v>2</v>
       </c>
       <c r="G72" s="235">
         <v>13</v>
       </c>
       <c r="H72" s="240"/>
-      <c r="I72" s="269"/>
-      <c r="J72" s="266"/>
+      <c r="I72" s="268"/>
+      <c r="J72" s="265"/>
       <c r="K72" s="235">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="L72" s="267"/>
+        <v>4</v>
+      </c>
+      <c r="L72" s="266"/>
       <c r="M72" s="235">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="N72" s="277"/>
+        <v>4</v>
+      </c>
+      <c r="N72" s="276"/>
     </row>
     <row r="73" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A73" s="241"/>
@@ -21083,27 +21092,30 @@
         <v>63</v>
       </c>
       <c r="E73" s="235">
-        <v>10</v>
-      </c>
-      <c r="F73" s="264">
-        <v>15</v>
+        <f t="shared" ref="E73:E76" si="13">E61-E65</f>
+        <v>8</v>
+      </c>
+      <c r="F73" s="235">
+        <f t="shared" ref="F73:F76" si="14">F61-F65</f>
+        <v>0</v>
       </c>
       <c r="G73" s="235">
-        <v>9</v>
+        <f t="shared" ref="G73:G76" si="15">G61-G65</f>
+        <v>0</v>
       </c>
       <c r="H73" s="240"/>
-      <c r="I73" s="266"/>
-      <c r="J73" s="274"/>
+      <c r="I73" s="265"/>
+      <c r="J73" s="273"/>
       <c r="K73" s="235">
         <f>SUM(E73:G73)</f>
-        <v>34</v>
-      </c>
-      <c r="L73" s="276"/>
+        <v>8</v>
+      </c>
+      <c r="L73" s="275"/>
       <c r="M73" s="235">
         <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="N73" s="277"/>
+        <v>8</v>
+      </c>
+      <c r="N73" s="276"/>
     </row>
     <row r="74" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A74" s="241"/>
@@ -21112,26 +21124,31 @@
         <v>57</v>
       </c>
       <c r="D74" s="234"/>
-      <c r="E74" s="235"/>
-      <c r="F74" s="264">
+      <c r="E74" s="235">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="235">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G74" s="235">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H74" s="240"/>
-      <c r="I74" s="269"/>
-      <c r="J74" s="266"/>
+      <c r="I74" s="268"/>
+      <c r="J74" s="265"/>
       <c r="K74" s="235">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L74" s="267"/>
+      <c r="L74" s="266"/>
       <c r="M74" s="235">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N74" s="277"/>
+      <c r="N74" s="276"/>
     </row>
     <row r="75" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A75" s="241"/>
@@ -21140,26 +21157,31 @@
         <v>58</v>
       </c>
       <c r="D75" s="234"/>
-      <c r="E75" s="235"/>
-      <c r="F75" s="264">
-        <v>8</v>
+      <c r="E75" s="235">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="235">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="G75" s="235">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H75" s="240"/>
-      <c r="I75" s="269"/>
-      <c r="J75" s="266"/>
+      <c r="I75" s="268"/>
+      <c r="J75" s="265"/>
       <c r="K75" s="235">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="L75" s="267"/>
+        <v>1</v>
+      </c>
+      <c r="L75" s="266"/>
       <c r="M75" s="235">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="N75" s="277"/>
+        <v>1</v>
+      </c>
+      <c r="N75" s="276"/>
     </row>
     <row r="76" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A76" s="241"/>
@@ -21168,26 +21190,31 @@
         <v>59</v>
       </c>
       <c r="D76" s="234"/>
-      <c r="E76" s="235"/>
-      <c r="F76" s="264">
+      <c r="E76" s="235">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
+      <c r="F76" s="235">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G76" s="235">
-        <v>8</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H76" s="240"/>
-      <c r="I76" s="269"/>
-      <c r="J76" s="266"/>
+      <c r="I76" s="268"/>
+      <c r="J76" s="265"/>
       <c r="K76" s="235">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="L76" s="267"/>
+      <c r="L76" s="266"/>
       <c r="M76" s="235">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="N76" s="277"/>
+      <c r="N76" s="276"/>
     </row>
     <row r="77" s="183" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:14">
       <c r="A77" s="241"/>
@@ -21208,16 +21235,16 @@
         <v>29</v>
       </c>
       <c r="H77" s="240"/>
-      <c r="I77" s="266"/>
-      <c r="J77" s="274"/>
+      <c r="I77" s="265"/>
+      <c r="J77" s="273"/>
       <c r="K77" s="235">
         <v>29</v>
       </c>
-      <c r="L77" s="276"/>
+      <c r="L77" s="275"/>
       <c r="M77" s="235">
         <v>29</v>
       </c>
-      <c r="N77" s="277"/>
+      <c r="N77" s="276"/>
     </row>
     <row r="78" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A78" s="241"/>
@@ -21234,16 +21261,16 @@
         <v>0</v>
       </c>
       <c r="H78" s="240"/>
-      <c r="I78" s="269"/>
-      <c r="J78" s="267"/>
+      <c r="I78" s="268"/>
+      <c r="J78" s="266"/>
       <c r="K78" s="235">
         <v>0</v>
       </c>
-      <c r="L78" s="267"/>
+      <c r="L78" s="266"/>
       <c r="M78" s="235">
         <v>0</v>
       </c>
-      <c r="N78" s="299"/>
+      <c r="N78" s="298"/>
     </row>
     <row r="79" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A79" s="241"/>
@@ -21260,16 +21287,16 @@
         <v>5</v>
       </c>
       <c r="H79" s="240"/>
-      <c r="I79" s="269"/>
-      <c r="J79" s="267"/>
+      <c r="I79" s="268"/>
+      <c r="J79" s="266"/>
       <c r="K79" s="235">
         <v>5</v>
       </c>
-      <c r="L79" s="267"/>
+      <c r="L79" s="266"/>
       <c r="M79" s="235">
         <v>5</v>
       </c>
-      <c r="N79" s="299"/>
+      <c r="N79" s="298"/>
     </row>
     <row r="80" s="183" customFormat="1" customHeight="1" outlineLevel="2" spans="1:14">
       <c r="A80" s="241"/>
@@ -21286,16 +21313,16 @@
         <v>24</v>
       </c>
       <c r="H80" s="240"/>
-      <c r="I80" s="269"/>
-      <c r="J80" s="267"/>
+      <c r="I80" s="268"/>
+      <c r="J80" s="266"/>
       <c r="K80" s="235">
         <v>24</v>
       </c>
-      <c r="L80" s="267"/>
+      <c r="L80" s="266"/>
       <c r="M80" s="235">
         <v>24</v>
       </c>
-      <c r="N80" s="299"/>
+      <c r="N80" s="298"/>
     </row>
     <row r="81" s="222" customFormat="1" ht="27.95" customHeight="1" collapsed="1" spans="1:15">
       <c r="A81" s="230" t="s">
@@ -21312,253 +21339,253 @@
       <c r="J81" s="230"/>
       <c r="K81" s="230"/>
       <c r="L81" s="230"/>
-      <c r="M81" s="265"/>
-      <c r="N81" s="265"/>
-      <c r="O81" s="300"/>
+      <c r="M81" s="264"/>
+      <c r="N81" s="264"/>
+      <c r="O81" s="299"/>
     </row>
     <row r="82" s="223" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:15">
-      <c r="A82" s="278" t="s">
+      <c r="A82" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="279"/>
-      <c r="C82" s="280" t="s">
+      <c r="B82" s="278"/>
+      <c r="C82" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="280"/>
-      <c r="E82" s="280"/>
-      <c r="F82" s="280"/>
-      <c r="G82" s="280"/>
-      <c r="H82" s="280"/>
-      <c r="I82" s="280"/>
-      <c r="J82" s="280"/>
-      <c r="K82" s="280"/>
-      <c r="L82" s="280"/>
-      <c r="M82" s="280"/>
-      <c r="N82" s="301"/>
-      <c r="O82" s="302"/>
+      <c r="D82" s="279"/>
+      <c r="E82" s="279"/>
+      <c r="F82" s="279"/>
+      <c r="G82" s="279"/>
+      <c r="H82" s="279"/>
+      <c r="I82" s="279"/>
+      <c r="J82" s="279"/>
+      <c r="K82" s="279"/>
+      <c r="L82" s="279"/>
+      <c r="M82" s="279"/>
+      <c r="N82" s="300"/>
+      <c r="O82" s="301"/>
     </row>
     <row r="83" s="223" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A83" s="278" t="s">
+      <c r="A83" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="281" t="s">
+      <c r="B83" s="278"/>
+      <c r="C83" s="280" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="281"/>
-      <c r="E83" s="281"/>
-      <c r="F83" s="281"/>
-      <c r="G83" s="281"/>
-      <c r="H83" s="281"/>
-      <c r="I83" s="281"/>
-      <c r="J83" s="281"/>
-      <c r="K83" s="281"/>
-      <c r="L83" s="281"/>
-      <c r="M83" s="281"/>
-      <c r="N83" s="303"/>
-      <c r="O83" s="302"/>
+      <c r="D83" s="280"/>
+      <c r="E83" s="280"/>
+      <c r="F83" s="280"/>
+      <c r="G83" s="280"/>
+      <c r="H83" s="280"/>
+      <c r="I83" s="280"/>
+      <c r="J83" s="280"/>
+      <c r="K83" s="280"/>
+      <c r="L83" s="280"/>
+      <c r="M83" s="280"/>
+      <c r="N83" s="302"/>
+      <c r="O83" s="301"/>
     </row>
     <row r="84" s="223" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A84" s="282" t="s">
+      <c r="A84" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="283"/>
-      <c r="C84" s="284" t="s">
+      <c r="B84" s="282"/>
+      <c r="C84" s="283" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="284"/>
-      <c r="E84" s="284"/>
-      <c r="F84" s="284"/>
-      <c r="G84" s="284"/>
-      <c r="H84" s="284"/>
-      <c r="I84" s="284"/>
-      <c r="J84" s="284"/>
-      <c r="K84" s="284"/>
-      <c r="L84" s="284"/>
-      <c r="M84" s="284"/>
-      <c r="N84" s="304"/>
-      <c r="O84" s="302"/>
+      <c r="D84" s="283"/>
+      <c r="E84" s="283"/>
+      <c r="F84" s="283"/>
+      <c r="G84" s="283"/>
+      <c r="H84" s="283"/>
+      <c r="I84" s="283"/>
+      <c r="J84" s="283"/>
+      <c r="K84" s="283"/>
+      <c r="L84" s="283"/>
+      <c r="M84" s="283"/>
+      <c r="N84" s="303"/>
+      <c r="O84" s="301"/>
     </row>
     <row r="85" s="223" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A85" s="282" t="s">
+      <c r="A85" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="283"/>
-      <c r="C85" s="284" t="s">
+      <c r="B85" s="282"/>
+      <c r="C85" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="284"/>
-      <c r="E85" s="284"/>
-      <c r="F85" s="284"/>
-      <c r="G85" s="284"/>
-      <c r="H85" s="284"/>
-      <c r="I85" s="284"/>
-      <c r="J85" s="284"/>
-      <c r="K85" s="284"/>
-      <c r="L85" s="284"/>
-      <c r="M85" s="284"/>
-      <c r="N85" s="304"/>
-      <c r="O85" s="302"/>
+      <c r="D85" s="283"/>
+      <c r="E85" s="283"/>
+      <c r="F85" s="283"/>
+      <c r="G85" s="283"/>
+      <c r="H85" s="283"/>
+      <c r="I85" s="283"/>
+      <c r="J85" s="283"/>
+      <c r="K85" s="283"/>
+      <c r="L85" s="283"/>
+      <c r="M85" s="283"/>
+      <c r="N85" s="303"/>
+      <c r="O85" s="301"/>
     </row>
     <row r="86" s="223" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
-      <c r="A86" s="282" t="s">
+      <c r="A86" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="283"/>
-      <c r="C86" s="285" t="s">
+      <c r="B86" s="282"/>
+      <c r="C86" s="284" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="285"/>
-      <c r="E86" s="285"/>
-      <c r="F86" s="285"/>
-      <c r="G86" s="285"/>
-      <c r="H86" s="285"/>
-      <c r="I86" s="285"/>
-      <c r="J86" s="285"/>
-      <c r="K86" s="285"/>
-      <c r="L86" s="285"/>
-      <c r="M86" s="285"/>
-      <c r="N86" s="305"/>
-      <c r="O86" s="302"/>
+      <c r="D86" s="284"/>
+      <c r="E86" s="284"/>
+      <c r="F86" s="284"/>
+      <c r="G86" s="284"/>
+      <c r="H86" s="284"/>
+      <c r="I86" s="284"/>
+      <c r="J86" s="284"/>
+      <c r="K86" s="284"/>
+      <c r="L86" s="284"/>
+      <c r="M86" s="284"/>
+      <c r="N86" s="304"/>
+      <c r="O86" s="301"/>
     </row>
     <row r="87" s="223" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
-      <c r="A87" s="282" t="s">
+      <c r="A87" s="281" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="283"/>
-      <c r="C87" s="286" t="s">
+      <c r="B87" s="282"/>
+      <c r="C87" s="285" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="286"/>
-      <c r="E87" s="286"/>
-      <c r="F87" s="286"/>
-      <c r="G87" s="286"/>
-      <c r="H87" s="286"/>
-      <c r="I87" s="286"/>
-      <c r="J87" s="286"/>
-      <c r="K87" s="286"/>
-      <c r="L87" s="286"/>
-      <c r="M87" s="286"/>
-      <c r="N87" s="306"/>
-      <c r="O87" s="302"/>
+      <c r="D87" s="285"/>
+      <c r="E87" s="285"/>
+      <c r="F87" s="285"/>
+      <c r="G87" s="285"/>
+      <c r="H87" s="285"/>
+      <c r="I87" s="285"/>
+      <c r="J87" s="285"/>
+      <c r="K87" s="285"/>
+      <c r="L87" s="285"/>
+      <c r="M87" s="285"/>
+      <c r="N87" s="305"/>
+      <c r="O87" s="301"/>
     </row>
     <row r="88" s="222" customFormat="1" ht="23.25" customHeight="1" spans="1:14">
-      <c r="A88" s="287" t="s">
+      <c r="A88" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="287"/>
-      <c r="C88" s="288" t="s">
+      <c r="B88" s="286"/>
+      <c r="C88" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="289"/>
-      <c r="E88" s="289"/>
-      <c r="F88" s="289"/>
-      <c r="G88" s="289"/>
-      <c r="H88" s="289"/>
-      <c r="I88" s="289"/>
-      <c r="J88" s="289"/>
-      <c r="K88" s="289"/>
-      <c r="L88" s="289"/>
-      <c r="M88" s="289"/>
-      <c r="N88" s="289"/>
+      <c r="D88" s="288"/>
+      <c r="E88" s="288"/>
+      <c r="F88" s="288"/>
+      <c r="G88" s="288"/>
+      <c r="H88" s="288"/>
+      <c r="I88" s="288"/>
+      <c r="J88" s="288"/>
+      <c r="K88" s="288"/>
+      <c r="L88" s="288"/>
+      <c r="M88" s="288"/>
+      <c r="N88" s="288"/>
     </row>
     <row r="89" s="222" customFormat="1" ht="23.25" customHeight="1" spans="1:14">
-      <c r="A89" s="290" t="s">
+      <c r="A89" s="289" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="291"/>
-      <c r="C89" s="291"/>
-      <c r="D89" s="291"/>
-      <c r="E89" s="291"/>
-      <c r="F89" s="291"/>
-      <c r="G89" s="291"/>
-      <c r="H89" s="291"/>
-      <c r="I89" s="291"/>
-      <c r="J89" s="291"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="291"/>
-      <c r="M89" s="291"/>
-      <c r="N89" s="307"/>
+      <c r="B89" s="290"/>
+      <c r="C89" s="290"/>
+      <c r="D89" s="290"/>
+      <c r="E89" s="290"/>
+      <c r="F89" s="290"/>
+      <c r="G89" s="290"/>
+      <c r="H89" s="290"/>
+      <c r="I89" s="290"/>
+      <c r="J89" s="290"/>
+      <c r="K89" s="290"/>
+      <c r="L89" s="290"/>
+      <c r="M89" s="290"/>
+      <c r="N89" s="306"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="292" t="s">
+      <c r="A90" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="293"/>
-      <c r="C90" s="294" t="s">
+      <c r="B90" s="292"/>
+      <c r="C90" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="294"/>
-      <c r="E90" s="295"/>
-      <c r="F90" s="295"/>
-      <c r="G90" s="295"/>
-      <c r="H90" s="295"/>
-      <c r="I90" s="295"/>
-      <c r="J90" s="295"/>
-      <c r="K90" s="295"/>
-      <c r="L90" s="295"/>
-      <c r="M90" s="295"/>
-      <c r="N90" s="295"/>
+      <c r="D90" s="293"/>
+      <c r="E90" s="294"/>
+      <c r="F90" s="294"/>
+      <c r="G90" s="294"/>
+      <c r="H90" s="294"/>
+      <c r="I90" s="294"/>
+      <c r="J90" s="294"/>
+      <c r="K90" s="294"/>
+      <c r="L90" s="294"/>
+      <c r="M90" s="294"/>
+      <c r="N90" s="294"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="292" t="s">
+      <c r="A91" s="291" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="293"/>
-      <c r="C91" s="294" t="s">
+      <c r="B91" s="292"/>
+      <c r="C91" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="294"/>
-      <c r="E91" s="295"/>
-      <c r="F91" s="295"/>
-      <c r="G91" s="295"/>
-      <c r="H91" s="295"/>
-      <c r="I91" s="295"/>
-      <c r="J91" s="295"/>
-      <c r="K91" s="295"/>
-      <c r="L91" s="295"/>
-      <c r="M91" s="295"/>
-      <c r="N91" s="295"/>
+      <c r="D91" s="293"/>
+      <c r="E91" s="294"/>
+      <c r="F91" s="294"/>
+      <c r="G91" s="294"/>
+      <c r="H91" s="294"/>
+      <c r="I91" s="294"/>
+      <c r="J91" s="294"/>
+      <c r="K91" s="294"/>
+      <c r="L91" s="294"/>
+      <c r="M91" s="294"/>
+      <c r="N91" s="294"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="292" t="s">
+      <c r="A92" s="291" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="293"/>
-      <c r="C92" s="294" t="s">
+      <c r="B92" s="292"/>
+      <c r="C92" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="294"/>
-      <c r="E92" s="295"/>
-      <c r="F92" s="295"/>
-      <c r="G92" s="295"/>
-      <c r="H92" s="295"/>
-      <c r="I92" s="295"/>
-      <c r="J92" s="295"/>
-      <c r="K92" s="295"/>
-      <c r="L92" s="295"/>
-      <c r="M92" s="295"/>
-      <c r="N92" s="295"/>
+      <c r="D92" s="293"/>
+      <c r="E92" s="294"/>
+      <c r="F92" s="294"/>
+      <c r="G92" s="294"/>
+      <c r="H92" s="294"/>
+      <c r="I92" s="294"/>
+      <c r="J92" s="294"/>
+      <c r="K92" s="294"/>
+      <c r="L92" s="294"/>
+      <c r="M92" s="294"/>
+      <c r="N92" s="294"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:14">
-      <c r="A93" s="292" t="s">
+      <c r="A93" s="291" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="293"/>
-      <c r="C93" s="288" t="s">
+      <c r="B93" s="292"/>
+      <c r="C93" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="296"/>
-      <c r="E93" s="289"/>
-      <c r="F93" s="289"/>
-      <c r="G93" s="289"/>
-      <c r="H93" s="289"/>
-      <c r="I93" s="289"/>
-      <c r="J93" s="289"/>
-      <c r="K93" s="289"/>
-      <c r="L93" s="289"/>
-      <c r="M93" s="289"/>
-      <c r="N93" s="289"/>
+      <c r="D93" s="295"/>
+      <c r="E93" s="288"/>
+      <c r="F93" s="288"/>
+      <c r="G93" s="288"/>
+      <c r="H93" s="288"/>
+      <c r="I93" s="288"/>
+      <c r="J93" s="288"/>
+      <c r="K93" s="288"/>
+      <c r="L93" s="288"/>
+      <c r="M93" s="288"/>
+      <c r="N93" s="288"/>
     </row>
   </sheetData>
   <mergeCells count="33">
